--- a/data/usda-families/size/20250603/20250603 Oyster ImageJ.xlsx
+++ b/data/usda-families/size/20250603/20250603 Oyster ImageJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolynkounellas/Desktop/Roberts Lab /Resazurin oyster tests/Oyster ImageJ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/size/20250603/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6287D7BF-F6C6-8942-ABB1-8D2F0B80FBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFA0FD0-F384-234F-9128-5F5AFC36796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{BD7EDBE8-1FB7-0343-9D43-6F4638037A7B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="12280" windowHeight="17760" xr2:uid="{BD7EDBE8-1FB7-0343-9D43-6F4638037A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
